--- a/tests/test_protocol_two_tasks.xlsx
+++ b/tests/test_protocol_two_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A82C21-CE58-4F4D-A6A5-8EA7540E13DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55325B41-C06C-854D-B02C-ED2721E0A557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Pump</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>F.0.1.22_2</t>
+  </si>
+  <si>
+    <t>Dose multiplier interval</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I1:M3"/>
+      <selection activeCell="G1" sqref="G1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,12 +564,14 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -611,12 +616,14 @@
         <v>6.8</v>
       </c>
       <c r="G2" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="13">
         <v>50</v>
       </c>
-      <c r="H2" s="13">
+      <c r="I2" s="13">
         <v>2</v>
       </c>
-      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -661,12 +668,14 @@
         <v>6.8</v>
       </c>
       <c r="G3" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="13">
         <v>10</v>
       </c>
-      <c r="H3" s="13">
+      <c r="I3" s="13">
         <v>2</v>
       </c>
-      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>

--- a/tests/test_protocol_two_tasks.xlsx
+++ b/tests/test_protocol_two_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55325B41-C06C-854D-B02C-ED2721E0A557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292FF3B0-339E-064D-AFA0-242D378CBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,7 +607,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="11">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E2" s="12">
         <v>5.6</v>
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="11">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="E3" s="12">
         <v>5.6</v>

--- a/tests/test_protocol_two_tasks.xlsx
+++ b/tests/test_protocol_two_tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jespersamsobirch/OneDrive - SniprBiome/ph-meter-interface/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snipr-my.sharepoint.com/personal/jsb_sniprbiome_com/Documents/ph-meter-interface/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292FF3B0-339E-064D-AFA0-242D378CBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{292FF3B0-339E-064D-AFA0-242D378CBA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A90FE2C9-681F-E24C-833A-62B6FED04E29}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Pump</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>F.0.1.22_2</t>
-  </si>
-  <si>
-    <t>Dose multiplier interval</t>
   </si>
 </sst>
 </file>
@@ -532,19 +529,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="29" width="9.6640625" style="7" customWidth="1"/>
-    <col min="30" max="32" width="11" style="7"/>
+    <col min="1" max="28" width="9.6640625" style="7" customWidth="1"/>
+    <col min="29" max="31" width="11" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -564,14 +561,12 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1"/>
       <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
@@ -594,9 +589,8 @@
       <c r="AC1"/>
       <c r="AD1"/>
       <c r="AE1"/>
-      <c r="AF1"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -616,14 +610,12 @@
         <v>6.8</v>
       </c>
       <c r="G2" s="13">
-        <v>0.1</v>
+        <v>50</v>
       </c>
       <c r="H2" s="13">
-        <v>50</v>
-      </c>
-      <c r="I2" s="13">
         <v>2</v>
       </c>
+      <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -646,9 +638,8 @@
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -668,14 +659,12 @@
         <v>6.8</v>
       </c>
       <c r="G3" s="13">
-        <v>0.05</v>
+        <v>10</v>
       </c>
       <c r="H3" s="13">
-        <v>10</v>
-      </c>
-      <c r="I3" s="13">
         <v>2</v>
       </c>
+      <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -698,9 +687,8 @@
       <c r="AC3"/>
       <c r="AD3"/>
       <c r="AE3"/>
-      <c r="AF3"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -732,9 +720,8 @@
       <c r="AC4"/>
       <c r="AD4"/>
       <c r="AE4"/>
-      <c r="AF4"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -766,9 +753,8 @@
       <c r="AC5"/>
       <c r="AD5"/>
       <c r="AE5"/>
-      <c r="AF5"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -800,9 +786,8 @@
       <c r="AC6"/>
       <c r="AD6"/>
       <c r="AE6"/>
-      <c r="AF6"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -834,9 +819,8 @@
       <c r="AC7"/>
       <c r="AD7"/>
       <c r="AE7"/>
-      <c r="AF7"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -868,9 +852,9 @@
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
-      <c r="AF8"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -894,9 +878,9 @@
       <c r="AC9"/>
       <c r="AD9"/>
       <c r="AE9"/>
-      <c r="AF9"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
@@ -911,9 +895,9 @@
       <c r="AC10"/>
       <c r="AD10"/>
       <c r="AE10"/>
-      <c r="AF10"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
@@ -928,9 +912,9 @@
       <c r="AC11"/>
       <c r="AD11"/>
       <c r="AE11"/>
-      <c r="AF11"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
@@ -945,7 +929,6 @@
       <c r="AC12"/>
       <c r="AD12"/>
       <c r="AE12"/>
-      <c r="AF12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
